--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Tgfbr2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H2">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I2">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J2">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.3565153878386</v>
+        <v>44.544241</v>
       </c>
       <c r="N2">
-        <v>44.3565153878386</v>
+        <v>89.088482</v>
       </c>
       <c r="O2">
-        <v>0.2737476509724089</v>
+        <v>0.2677188803968527</v>
       </c>
       <c r="P2">
-        <v>0.2737476509724089</v>
+        <v>0.2025351964154738</v>
       </c>
       <c r="Q2">
-        <v>48.26865577443138</v>
+        <v>48.789084446095</v>
       </c>
       <c r="R2">
-        <v>48.26865577443138</v>
+        <v>195.15633778438</v>
       </c>
       <c r="S2">
-        <v>0.01093309502662867</v>
+        <v>0.009822975787673096</v>
       </c>
       <c r="T2">
-        <v>0.01093309502662867</v>
+        <v>0.006029906390826908</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H3">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I3">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J3">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.0291783904059</v>
+        <v>20.36664933333333</v>
       </c>
       <c r="N3">
-        <v>19.0291783904059</v>
+        <v>61.099948</v>
       </c>
       <c r="O3">
-        <v>0.1174391820178184</v>
+        <v>0.1224072166131488</v>
       </c>
       <c r="P3">
-        <v>0.1174391820178184</v>
+        <v>0.1389056103700951</v>
       </c>
       <c r="Q3">
-        <v>20.70750719179764</v>
+        <v>22.30748918155333</v>
       </c>
       <c r="R3">
-        <v>20.70750719179764</v>
+        <v>133.84493508932</v>
       </c>
       <c r="S3">
-        <v>0.004690355268033923</v>
+        <v>0.004491289980165151</v>
       </c>
       <c r="T3">
-        <v>0.004690355268033923</v>
+        <v>0.004135517394093568</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H4">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I4">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J4">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.2660871361529</v>
+        <v>25.30234</v>
       </c>
       <c r="N4">
-        <v>24.2660871361529</v>
+        <v>75.90701999999999</v>
       </c>
       <c r="O4">
-        <v>0.1497589315511228</v>
+        <v>0.1520716030658262</v>
       </c>
       <c r="P4">
-        <v>0.1497589315511228</v>
+        <v>0.1725682474308328</v>
       </c>
       <c r="Q4">
-        <v>26.40629897831107</v>
+        <v>27.71352649029999</v>
       </c>
       <c r="R4">
-        <v>26.40629897831107</v>
+        <v>166.2811589418</v>
       </c>
       <c r="S4">
-        <v>0.005981160473591905</v>
+        <v>0.005579717323985214</v>
       </c>
       <c r="T4">
-        <v>0.005981160473591905</v>
+        <v>0.005137726165393926</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H5">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I5">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J5">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.7627470713794</v>
+        <v>36.81412633333333</v>
       </c>
       <c r="N5">
-        <v>36.7627470713794</v>
+        <v>110.442379</v>
       </c>
       <c r="O5">
-        <v>0.2268824673464346</v>
+        <v>0.2212595043374584</v>
       </c>
       <c r="P5">
-        <v>0.2268824673464346</v>
+        <v>0.2510814913577403</v>
       </c>
       <c r="Q5">
-        <v>40.00513494343192</v>
+        <v>40.32232850226833</v>
       </c>
       <c r="R5">
-        <v>40.00513494343192</v>
+        <v>241.93397101361</v>
       </c>
       <c r="S5">
-        <v>0.009061365701452393</v>
+        <v>0.008118317059587385</v>
       </c>
       <c r="T5">
-        <v>0.009061365701452393</v>
+        <v>0.007475233520650038</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H6">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I6">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J6">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.1685486001233</v>
+        <v>24.61478433333333</v>
       </c>
       <c r="N6">
-        <v>23.1685486001233</v>
+        <v>73.844353</v>
       </c>
       <c r="O6">
-        <v>0.1429854374327779</v>
+        <v>0.1479392701500961</v>
       </c>
       <c r="P6">
-        <v>0.1429854374327779</v>
+        <v>0.1678789468994273</v>
       </c>
       <c r="Q6">
-        <v>25.2119601234309</v>
+        <v>26.96045020637833</v>
       </c>
       <c r="R6">
-        <v>25.2119601234309</v>
+        <v>161.76270123827</v>
       </c>
       <c r="S6">
-        <v>0.005710636673314111</v>
+        <v>0.005428096317212553</v>
       </c>
       <c r="T6">
-        <v>0.005710636673314111</v>
+        <v>0.004998115649576093</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H7">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I7">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J7">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.4512467417156</v>
+        <v>14.742243</v>
       </c>
       <c r="N7">
-        <v>14.4512467417156</v>
+        <v>29.484486</v>
       </c>
       <c r="O7">
-        <v>0.08918633067943733</v>
+        <v>0.0886035254366179</v>
       </c>
       <c r="P7">
-        <v>0.08918633067943733</v>
+        <v>0.06703050752643071</v>
       </c>
       <c r="Q7">
-        <v>15.7258127332178</v>
+        <v>16.147105046685</v>
       </c>
       <c r="R7">
-        <v>15.7258127332178</v>
+        <v>64.58842018673998</v>
       </c>
       <c r="S7">
-        <v>0.003561976239543679</v>
+        <v>0.003250985824295293</v>
       </c>
       <c r="T7">
-        <v>0.003561976239543679</v>
+        <v>0.001995641710020903</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H8">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I8">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J8">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.3565153878386</v>
+        <v>44.544241</v>
       </c>
       <c r="N8">
-        <v>44.3565153878386</v>
+        <v>89.088482</v>
       </c>
       <c r="O8">
-        <v>0.2737476509724089</v>
+        <v>0.2677188803968527</v>
       </c>
       <c r="P8">
-        <v>0.2737476509724089</v>
+        <v>0.2025351964154738</v>
       </c>
       <c r="Q8">
-        <v>439.6371223001264</v>
+        <v>491.2073265322837</v>
       </c>
       <c r="R8">
-        <v>439.6371223001264</v>
+        <v>2947.243959193702</v>
       </c>
       <c r="S8">
-        <v>0.09958003508121262</v>
+        <v>0.09889748352595802</v>
       </c>
       <c r="T8">
-        <v>0.09958003508121262</v>
+        <v>0.09106342836020627</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H9">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I9">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J9">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.0291783904059</v>
+        <v>20.36664933333333</v>
       </c>
       <c r="N9">
-        <v>19.0291783904059</v>
+        <v>61.099948</v>
       </c>
       <c r="O9">
-        <v>0.1174391820178184</v>
+        <v>0.1224072166131488</v>
       </c>
       <c r="P9">
-        <v>0.1174391820178184</v>
+        <v>0.1389056103700951</v>
       </c>
       <c r="Q9">
-        <v>188.6066376978639</v>
+        <v>224.5912635361142</v>
       </c>
       <c r="R9">
-        <v>188.6066376978639</v>
+        <v>2021.321371825028</v>
       </c>
       <c r="S9">
-        <v>0.04272035878189864</v>
+        <v>0.04521819929364825</v>
       </c>
       <c r="T9">
-        <v>0.04272035878189864</v>
+        <v>0.06245443420520205</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H10">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I10">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J10">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.2660871361529</v>
+        <v>25.30234</v>
       </c>
       <c r="N10">
-        <v>24.2660871361529</v>
+        <v>75.90701999999999</v>
       </c>
       <c r="O10">
-        <v>0.1497589315511228</v>
+        <v>0.1520716030658262</v>
       </c>
       <c r="P10">
-        <v>0.1497589315511228</v>
+        <v>0.1725682474308328</v>
       </c>
       <c r="Q10">
-        <v>240.5119659365158</v>
+        <v>279.0191168912467</v>
       </c>
       <c r="R10">
-        <v>240.5119659365158</v>
+        <v>2511.17205202122</v>
       </c>
       <c r="S10">
-        <v>0.05447717854239711</v>
+        <v>0.05617645956338528</v>
       </c>
       <c r="T10">
-        <v>0.05447717854239711</v>
+        <v>0.07758975484402959</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H11">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I11">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J11">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.7627470713794</v>
+        <v>36.81412633333333</v>
       </c>
       <c r="N11">
-        <v>36.7627470713794</v>
+        <v>110.442379</v>
       </c>
       <c r="O11">
-        <v>0.2268824673464346</v>
+        <v>0.2212595043374584</v>
       </c>
       <c r="P11">
-        <v>0.2268824673464346</v>
+        <v>0.2510814913577403</v>
       </c>
       <c r="Q11">
-        <v>364.3719121980423</v>
+        <v>405.9642317133299</v>
       </c>
       <c r="R11">
-        <v>364.3719121980423</v>
+        <v>3653.678085419969</v>
       </c>
       <c r="S11">
-        <v>0.08253208375456413</v>
+        <v>0.08173502052876759</v>
       </c>
       <c r="T11">
-        <v>0.08253208375456413</v>
+        <v>0.1128907064327042</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H12">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I12">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J12">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.1685486001233</v>
+        <v>24.61478433333333</v>
       </c>
       <c r="N12">
-        <v>23.1685486001233</v>
+        <v>73.844353</v>
       </c>
       <c r="O12">
-        <v>0.1429854374327779</v>
+        <v>0.1479392701500961</v>
       </c>
       <c r="P12">
-        <v>0.1429854374327779</v>
+        <v>0.1678789468994273</v>
       </c>
       <c r="Q12">
-        <v>229.6337740998811</v>
+        <v>271.4371630116092</v>
       </c>
       <c r="R12">
-        <v>229.6337740998811</v>
+        <v>2442.934467104483</v>
       </c>
       <c r="S12">
-        <v>0.05201321299043278</v>
+        <v>0.05464994292081086</v>
       </c>
       <c r="T12">
-        <v>0.05201321299043278</v>
+        <v>0.07548136188044244</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H13">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I13">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J13">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.4512467417156</v>
+        <v>14.742243</v>
       </c>
       <c r="N13">
-        <v>14.4512467417156</v>
+        <v>29.484486</v>
       </c>
       <c r="O13">
-        <v>0.08918633067943733</v>
+        <v>0.0886035254366179</v>
       </c>
       <c r="P13">
-        <v>0.08918633067943733</v>
+        <v>0.06703050752643071</v>
       </c>
       <c r="Q13">
-        <v>143.2327241133742</v>
+        <v>162.568664513091</v>
       </c>
       <c r="R13">
-        <v>143.2327241133742</v>
+        <v>975.411987078546</v>
       </c>
       <c r="S13">
-        <v>0.03244293752393929</v>
+        <v>0.03273084693997075</v>
       </c>
       <c r="T13">
-        <v>0.03244293752393929</v>
+        <v>0.03013810897124169</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H14">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I14">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J14">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.3565153878386</v>
+        <v>44.544241</v>
       </c>
       <c r="N14">
-        <v>44.3565153878386</v>
+        <v>89.088482</v>
       </c>
       <c r="O14">
-        <v>0.2737476509724089</v>
+        <v>0.2677188803968527</v>
       </c>
       <c r="P14">
-        <v>0.2737476509724089</v>
+        <v>0.2025351964154738</v>
       </c>
       <c r="Q14">
-        <v>30.34803935493917</v>
+        <v>13.09677895417733</v>
       </c>
       <c r="R14">
-        <v>30.34803935493917</v>
+        <v>78.580673725064</v>
       </c>
       <c r="S14">
-        <v>0.006873984634873031</v>
+        <v>0.002636846828013954</v>
       </c>
       <c r="T14">
-        <v>0.006873984634873031</v>
+        <v>0.002427971912517475</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H15">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I15">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J15">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.0291783904059</v>
+        <v>20.36664933333333</v>
       </c>
       <c r="N15">
-        <v>19.0291783904059</v>
+        <v>61.099948</v>
       </c>
       <c r="O15">
-        <v>0.1174391820178184</v>
+        <v>0.1224072166131488</v>
       </c>
       <c r="P15">
-        <v>0.1174391820178184</v>
+        <v>0.1389056103700951</v>
       </c>
       <c r="Q15">
-        <v>13.01946849599758</v>
+        <v>5.988147925921778</v>
       </c>
       <c r="R15">
-        <v>13.01946849599758</v>
+        <v>53.893331333296</v>
       </c>
       <c r="S15">
-        <v>0.002948975561452056</v>
+        <v>0.00120562688882436</v>
       </c>
       <c r="T15">
-        <v>0.002948975561452056</v>
+        <v>0.001665186725263523</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H16">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I16">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J16">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.2660871361529</v>
+        <v>25.30234</v>
       </c>
       <c r="N16">
-        <v>24.2660871361529</v>
+        <v>75.90701999999999</v>
       </c>
       <c r="O16">
-        <v>0.1497589315511228</v>
+        <v>0.1520716030658262</v>
       </c>
       <c r="P16">
-        <v>0.1497589315511228</v>
+        <v>0.1725682474308328</v>
       </c>
       <c r="Q16">
-        <v>16.60248017589454</v>
+        <v>7.439326533893333</v>
       </c>
       <c r="R16">
-        <v>16.60248017589454</v>
+        <v>66.95393880504</v>
       </c>
       <c r="S16">
-        <v>0.003760545855866276</v>
+        <v>0.00149780069145932</v>
       </c>
       <c r="T16">
-        <v>0.003760545855866276</v>
+        <v>0.00206873109054549</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H17">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I17">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J17">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.7627470713794</v>
+        <v>36.81412633333333</v>
       </c>
       <c r="N17">
-        <v>36.7627470713794</v>
+        <v>110.442379</v>
       </c>
       <c r="O17">
-        <v>0.2268824673464346</v>
+        <v>0.2212595043374584</v>
       </c>
       <c r="P17">
-        <v>0.2268824673464346</v>
+        <v>0.2510814913577403</v>
       </c>
       <c r="Q17">
-        <v>25.15250093842553</v>
+        <v>10.82399125352311</v>
       </c>
       <c r="R17">
-        <v>25.15250093842553</v>
+        <v>97.41592128170801</v>
       </c>
       <c r="S17">
-        <v>0.005697168866733637</v>
+        <v>0.002179253929776354</v>
       </c>
       <c r="T17">
-        <v>0.005697168866733637</v>
+        <v>0.003009940097122879</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H18">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I18">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J18">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>23.1685486001233</v>
+        <v>24.61478433333333</v>
       </c>
       <c r="N18">
-        <v>23.1685486001233</v>
+        <v>73.844353</v>
       </c>
       <c r="O18">
-        <v>0.1429854374327779</v>
+        <v>0.1479392701500961</v>
       </c>
       <c r="P18">
-        <v>0.1429854374327779</v>
+        <v>0.1678789468994273</v>
       </c>
       <c r="Q18">
-        <v>15.85156134483323</v>
+        <v>7.237173250261778</v>
       </c>
       <c r="R18">
-        <v>15.85156134483323</v>
+        <v>65.134559252356</v>
       </c>
       <c r="S18">
-        <v>0.003590458937025105</v>
+        <v>0.001457100054563677</v>
       </c>
       <c r="T18">
-        <v>0.003590458937025105</v>
+        <v>0.00201251621934725</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H19">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I19">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J19">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.4512467417156</v>
+        <v>14.742243</v>
       </c>
       <c r="N19">
-        <v>14.4512467417156</v>
+        <v>29.484486</v>
       </c>
       <c r="O19">
-        <v>0.08918633067943733</v>
+        <v>0.0886035254366179</v>
       </c>
       <c r="P19">
-        <v>0.08918633067943733</v>
+        <v>0.06703050752643071</v>
       </c>
       <c r="Q19">
-        <v>9.887318717686403</v>
+        <v>4.334474974212</v>
       </c>
       <c r="R19">
-        <v>9.887318717686403</v>
+        <v>26.006849845272</v>
       </c>
       <c r="S19">
-        <v>0.002239527771483776</v>
+        <v>0.0008726837817791286</v>
       </c>
       <c r="T19">
-        <v>0.002239527771483776</v>
+        <v>0.0008035550977624102</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H20">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I20">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J20">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>44.3565153878386</v>
+        <v>44.544241</v>
       </c>
       <c r="N20">
-        <v>44.3565153878386</v>
+        <v>89.088482</v>
       </c>
       <c r="O20">
-        <v>0.2737476509724089</v>
+        <v>0.2677188803968527</v>
       </c>
       <c r="P20">
-        <v>0.2737476509724089</v>
+        <v>0.2025351964154738</v>
       </c>
       <c r="Q20">
-        <v>68.31537551774095</v>
+        <v>33.02230883829733</v>
       </c>
       <c r="R20">
-        <v>68.31537551774095</v>
+        <v>198.133853029784</v>
       </c>
       <c r="S20">
-        <v>0.01547377859051395</v>
+        <v>0.006648563789510108</v>
       </c>
       <c r="T20">
-        <v>0.01547377859051395</v>
+        <v>0.006121905136093808</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H21">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I21">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J21">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.0291783904059</v>
+        <v>20.36664933333333</v>
       </c>
       <c r="N21">
-        <v>19.0291783904059</v>
+        <v>61.099948</v>
       </c>
       <c r="O21">
-        <v>0.1174391820178184</v>
+        <v>0.1224072166131488</v>
       </c>
       <c r="P21">
-        <v>0.1174391820178184</v>
+        <v>0.1389056103700951</v>
       </c>
       <c r="Q21">
-        <v>29.30765539556073</v>
+        <v>15.09855750570844</v>
       </c>
       <c r="R21">
-        <v>29.30765539556073</v>
+        <v>135.887017551376</v>
       </c>
       <c r="S21">
-        <v>0.00663833239824932</v>
+        <v>0.003039875957730432</v>
       </c>
       <c r="T21">
-        <v>0.00663833239824932</v>
+        <v>0.004198613300833485</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H22">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I22">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J22">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.2660871361529</v>
+        <v>25.30234</v>
       </c>
       <c r="N22">
-        <v>24.2660871361529</v>
+        <v>75.90701999999999</v>
       </c>
       <c r="O22">
-        <v>0.1497589315511228</v>
+        <v>0.1520716030658262</v>
       </c>
       <c r="P22">
-        <v>0.1497589315511228</v>
+        <v>0.1725682474308328</v>
       </c>
       <c r="Q22">
-        <v>37.37324360486215</v>
+        <v>18.75756926269333</v>
       </c>
       <c r="R22">
-        <v>37.37324360486215</v>
+        <v>168.81812336424</v>
       </c>
       <c r="S22">
-        <v>0.008465228982029047</v>
+        <v>0.003776565000038348</v>
       </c>
       <c r="T22">
-        <v>0.008465228982029047</v>
+        <v>0.005216112848387914</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H23">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I23">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J23">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>36.7627470713794</v>
+        <v>36.81412633333333</v>
       </c>
       <c r="N23">
-        <v>36.7627470713794</v>
+        <v>110.442379</v>
       </c>
       <c r="O23">
-        <v>0.2268824673464346</v>
+        <v>0.2212595043374584</v>
       </c>
       <c r="P23">
-        <v>0.2268824673464346</v>
+        <v>0.2510814913577403</v>
       </c>
       <c r="Q23">
-        <v>56.61988660032551</v>
+        <v>27.29168624494978</v>
       </c>
       <c r="R23">
-        <v>56.61988660032551</v>
+        <v>245.625176204548</v>
       </c>
       <c r="S23">
-        <v>0.0128246911099233</v>
+        <v>0.005494785897962669</v>
       </c>
       <c r="T23">
-        <v>0.0128246911099233</v>
+        <v>0.00758928373302532</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H24">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I24">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J24">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.1685486001233</v>
+        <v>24.61478433333333</v>
       </c>
       <c r="N24">
-        <v>23.1685486001233</v>
+        <v>73.844353</v>
       </c>
       <c r="O24">
-        <v>0.1429854374327779</v>
+        <v>0.1479392701500961</v>
       </c>
       <c r="P24">
-        <v>0.1429854374327779</v>
+        <v>0.1678789468994273</v>
       </c>
       <c r="Q24">
-        <v>35.68287734009891</v>
+        <v>18.24785857824845</v>
       </c>
       <c r="R24">
-        <v>35.68287734009891</v>
+        <v>164.230727204236</v>
       </c>
       <c r="S24">
-        <v>0.008082352460900537</v>
+        <v>0.003673942133287234</v>
       </c>
       <c r="T24">
-        <v>0.008082352460900537</v>
+        <v>0.005074372284199704</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H25">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I25">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J25">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.4512467417156</v>
+        <v>14.742243</v>
       </c>
       <c r="N25">
-        <v>14.4512467417156</v>
+        <v>29.484486</v>
       </c>
       <c r="O25">
-        <v>0.08918633067943733</v>
+        <v>0.0886035254366179</v>
       </c>
       <c r="P25">
-        <v>0.08918633067943733</v>
+        <v>0.06703050752643071</v>
       </c>
       <c r="Q25">
-        <v>22.25698613219982</v>
+        <v>10.928975112972</v>
       </c>
       <c r="R25">
-        <v>22.25698613219982</v>
+        <v>65.573850677832</v>
       </c>
       <c r="S25">
-        <v>0.005041320096562473</v>
+        <v>0.002200390909926131</v>
       </c>
       <c r="T25">
-        <v>0.005041320096562473</v>
+        <v>0.002026089368976856</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H26">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I26">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J26">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>44.3565153878386</v>
+        <v>44.544241</v>
       </c>
       <c r="N26">
-        <v>44.3565153878386</v>
+        <v>89.088482</v>
       </c>
       <c r="O26">
-        <v>0.2737476509724089</v>
+        <v>0.2677188803968527</v>
       </c>
       <c r="P26">
-        <v>0.2737476509724089</v>
+        <v>0.2025351964154738</v>
       </c>
       <c r="Q26">
-        <v>622.0026800369195</v>
+        <v>80.74265815815967</v>
       </c>
       <c r="R26">
-        <v>622.0026800369195</v>
+        <v>484.4559489489581</v>
       </c>
       <c r="S26">
-        <v>0.1408867576391806</v>
+        <v>0.01625636523260172</v>
       </c>
       <c r="T26">
-        <v>0.1408867576391806</v>
+        <v>0.01496863517632194</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H27">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I27">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J27">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>19.0291783904059</v>
+        <v>20.36664933333333</v>
       </c>
       <c r="N27">
-        <v>19.0291783904059</v>
+        <v>61.099948</v>
       </c>
       <c r="O27">
-        <v>0.1174391820178184</v>
+        <v>0.1224072166131488</v>
       </c>
       <c r="P27">
-        <v>0.1174391820178184</v>
+        <v>0.1389056103700951</v>
       </c>
       <c r="Q27">
-        <v>266.8424211018678</v>
+        <v>36.91739645869022</v>
       </c>
       <c r="R27">
-        <v>266.8424211018678</v>
+        <v>332.2565681282121</v>
       </c>
       <c r="S27">
-        <v>0.06044116000818447</v>
+        <v>0.007432783289022502</v>
       </c>
       <c r="T27">
-        <v>0.06044116000818447</v>
+        <v>0.01026600532832338</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H28">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I28">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J28">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>24.2660871361529</v>
+        <v>25.30234</v>
       </c>
       <c r="N28">
-        <v>24.2660871361529</v>
+        <v>75.90701999999999</v>
       </c>
       <c r="O28">
-        <v>0.1497589315511228</v>
+        <v>0.1520716030658262</v>
       </c>
       <c r="P28">
-        <v>0.1497589315511228</v>
+        <v>0.1725682474308328</v>
       </c>
       <c r="Q28">
-        <v>340.2785611250875</v>
+        <v>45.86402514348666</v>
       </c>
       <c r="R28">
-        <v>340.2785611250875</v>
+        <v>412.77622629138</v>
       </c>
       <c r="S28">
-        <v>0.07707481769723847</v>
+        <v>0.009234057445932637</v>
       </c>
       <c r="T28">
-        <v>0.07707481769723847</v>
+        <v>0.01275388764286917</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H29">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I29">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J29">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>36.7627470713794</v>
+        <v>36.81412633333333</v>
       </c>
       <c r="N29">
-        <v>36.7627470713794</v>
+        <v>110.442379</v>
       </c>
       <c r="O29">
-        <v>0.2268824673464346</v>
+        <v>0.2212595043374584</v>
       </c>
       <c r="P29">
-        <v>0.2268824673464346</v>
+        <v>0.2510814913577403</v>
       </c>
       <c r="Q29">
-        <v>515.5167623962366</v>
+        <v>66.7307456854779</v>
       </c>
       <c r="R29">
-        <v>515.5167623962366</v>
+        <v>600.5767111693011</v>
       </c>
       <c r="S29">
-        <v>0.1167671579137612</v>
+        <v>0.01343526951988715</v>
       </c>
       <c r="T29">
-        <v>0.1167671579137612</v>
+        <v>0.0185565141771759</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H30">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I30">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J30">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>23.1685486001233</v>
+        <v>24.61478433333333</v>
       </c>
       <c r="N30">
-        <v>23.1685486001233</v>
+        <v>73.844353</v>
       </c>
       <c r="O30">
-        <v>0.1429854374327779</v>
+        <v>0.1479392701500961</v>
       </c>
       <c r="P30">
-        <v>0.1429854374327779</v>
+        <v>0.1678789468994273</v>
       </c>
       <c r="Q30">
-        <v>324.8879943755322</v>
+        <v>44.61773446904522</v>
       </c>
       <c r="R30">
-        <v>324.8879943755322</v>
+        <v>401.5596102214071</v>
       </c>
       <c r="S30">
-        <v>0.07358877637110539</v>
+        <v>0.008983134862358291</v>
       </c>
       <c r="T30">
-        <v>0.07358877637110539</v>
+        <v>0.01240731860139377</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.812639666666667</v>
+      </c>
+      <c r="H31">
+        <v>5.437919000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.06072177355778616</v>
+      </c>
+      <c r="J31">
+        <v>0.07390634043485356</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>14.742243</v>
+      </c>
+      <c r="N31">
+        <v>29.484486</v>
+      </c>
+      <c r="O31">
+        <v>0.0886035254366179</v>
+      </c>
+      <c r="P31">
+        <v>0.06703050752643071</v>
+      </c>
+      <c r="Q31">
+        <v>26.722374437439</v>
+      </c>
+      <c r="R31">
+        <v>160.334246624634</v>
+      </c>
+      <c r="S31">
+        <v>0.005380163207983858</v>
+      </c>
+      <c r="T31">
+        <v>0.004953979508769401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>14.880867</v>
+      </c>
+      <c r="H32">
+        <v>29.761734</v>
+      </c>
+      <c r="I32">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J32">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>44.544241</v>
+      </c>
+      <c r="N32">
+        <v>89.088482</v>
+      </c>
+      <c r="O32">
+        <v>0.2677188803968527</v>
+      </c>
+      <c r="P32">
+        <v>0.2025351964154738</v>
+      </c>
+      <c r="Q32">
+        <v>662.8569259369469</v>
+      </c>
+      <c r="R32">
+        <v>2651.427703747788</v>
+      </c>
+      <c r="S32">
+        <v>0.1334566452330957</v>
+      </c>
+      <c r="T32">
+        <v>0.08192334943950738</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>14.880867</v>
+      </c>
+      <c r="H33">
+        <v>29.761734</v>
+      </c>
+      <c r="I33">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J33">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>20.36664933333333</v>
+      </c>
+      <c r="N33">
+        <v>61.099948</v>
+      </c>
+      <c r="O33">
+        <v>0.1224072166131488</v>
+      </c>
+      <c r="P33">
+        <v>0.1389056103700951</v>
+      </c>
+      <c r="Q33">
+        <v>303.0733999649719</v>
+      </c>
+      <c r="R33">
+        <v>1818.440399789832</v>
+      </c>
+      <c r="S33">
+        <v>0.06101944120375812</v>
+      </c>
+      <c r="T33">
+        <v>0.05618585341637912</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>14.880867</v>
+      </c>
+      <c r="H34">
+        <v>29.761734</v>
+      </c>
+      <c r="I34">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J34">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>25.30234</v>
+      </c>
+      <c r="N34">
+        <v>75.90701999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.1520716030658262</v>
+      </c>
+      <c r="P34">
+        <v>0.1725682474308328</v>
+      </c>
+      <c r="Q34">
+        <v>376.5207563287799</v>
+      </c>
+      <c r="R34">
+        <v>2259.124537972679</v>
+      </c>
+      <c r="S34">
+        <v>0.07580700304102538</v>
+      </c>
+      <c r="T34">
+        <v>0.0698020348396067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>14.880867</v>
+      </c>
+      <c r="H35">
+        <v>29.761734</v>
+      </c>
+      <c r="I35">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J35">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>36.81412633333333</v>
+      </c>
+      <c r="N35">
+        <v>110.442379</v>
+      </c>
+      <c r="O35">
+        <v>0.2212595043374584</v>
+      </c>
+      <c r="P35">
+        <v>0.2510814913577403</v>
+      </c>
+      <c r="Q35">
+        <v>547.826117687531</v>
+      </c>
+      <c r="R35">
+        <v>3286.956706125186</v>
+      </c>
+      <c r="S35">
+        <v>0.1102968574014772</v>
+      </c>
+      <c r="T35">
+        <v>0.101559813397062</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>14.022803067336</v>
-      </c>
-      <c r="H31">
-        <v>14.022803067336</v>
-      </c>
-      <c r="I31">
-        <v>0.5146592386773783</v>
-      </c>
-      <c r="J31">
-        <v>0.5146592386773783</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>14.4512467417156</v>
-      </c>
-      <c r="N31">
-        <v>14.4512467417156</v>
-      </c>
-      <c r="O31">
-        <v>0.08918633067943733</v>
-      </c>
-      <c r="P31">
-        <v>0.08918633067943733</v>
-      </c>
-      <c r="Q31">
-        <v>202.6469871365589</v>
-      </c>
-      <c r="R31">
-        <v>202.6469871365589</v>
-      </c>
-      <c r="S31">
-        <v>0.04590056904790812</v>
-      </c>
-      <c r="T31">
-        <v>0.04590056904790812</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>14.880867</v>
+      </c>
+      <c r="H36">
+        <v>29.761734</v>
+      </c>
+      <c r="I36">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J36">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>24.61478433333333</v>
+      </c>
+      <c r="N36">
+        <v>73.844353</v>
+      </c>
+      <c r="O36">
+        <v>0.1479392701500961</v>
+      </c>
+      <c r="P36">
+        <v>0.1678789468994273</v>
+      </c>
+      <c r="Q36">
+        <v>366.2893318980169</v>
+      </c>
+      <c r="R36">
+        <v>2197.735991388102</v>
+      </c>
+      <c r="S36">
+        <v>0.07374705386186352</v>
+      </c>
+      <c r="T36">
+        <v>0.06790526226446798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>14.880867</v>
+      </c>
+      <c r="H37">
+        <v>29.761734</v>
+      </c>
+      <c r="I37">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J37">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>14.742243</v>
+      </c>
+      <c r="N37">
+        <v>29.484486</v>
+      </c>
+      <c r="O37">
+        <v>0.0886035254366179</v>
+      </c>
+      <c r="P37">
+        <v>0.06703050752643071</v>
+      </c>
+      <c r="Q37">
+        <v>219.377357364681</v>
+      </c>
+      <c r="R37">
+        <v>877.5094294587238</v>
+      </c>
+      <c r="S37">
+        <v>0.04416845477266273</v>
+      </c>
+      <c r="T37">
+        <v>0.02711313286965944</v>
       </c>
     </row>
   </sheetData>
